--- a/outputs-GTDB-r202/g__Treponema_D.xlsx
+++ b/outputs-GTDB-r202/g__Treponema_D.xlsx
@@ -2343,7 +2343,7 @@
       </c>
       <c r="CC7" t="inlineStr">
         <is>
-          <t>s__Treponema_D sp902799665</t>
+          <t>s__Treponema_D sp902799665(reject)</t>
         </is>
       </c>
     </row>
